--- a/public/back/assets/excel/template-import-pos.xlsx
+++ b/public/back/assets/excel/template-import-pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhamadhendrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B9BF52-339E-4041-BCCA-80AD16E3B4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25820E80-7547-6642-BD8F-E7E060B2D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5D562CFB-E2EA-AB4C-9F4D-D2206F588783}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D85F1CF-32BB-454E-BEED-22B5500E99CB}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/back/assets/excel/template-import-pos.xlsx
+++ b/public/back/assets/excel/template-import-pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhamadhendrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25820E80-7547-6642-BD8F-E7E060B2D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E8C93F-90D5-E543-9D9B-5CA84C876718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5D562CFB-E2EA-AB4C-9F4D-D2206F588783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -68,27 +68,12 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>12 Desember 2024</t>
-  </si>
-  <si>
-    <t>Jl. Taman rosa v taman harapan baru blok s12 no 1 bekasi, KOTA BEKASI, MEDAN SATRIA, JAWA BARAT, ID, 17131</t>
-  </si>
-  <si>
     <t>KOTA BEKASI</t>
   </si>
   <si>
-    <t>muhamadhendrik</t>
-  </si>
-  <si>
     <t>OUTLET</t>
   </si>
   <si>
-    <t>SGOS</t>
-  </si>
-  <si>
-    <t>SALESMAN</t>
-  </si>
-  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -104,7 +89,40 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>POS-SHOPEE-001</t>
+    <t>SATWAGIA OFFICIAL STORE</t>
+  </si>
+  <si>
+    <t>18 Desember 2024</t>
+  </si>
+  <si>
+    <t>412186M03T1CF</t>
+  </si>
+  <si>
+    <t>talitaalya</t>
+  </si>
+  <si>
+    <t>Jln.Indrakila .no 19 (Toko Talita Pet Shop 2) Pas Samping Atm Mandiri, KOTA BALIKPAPAN, BALIKPAPAN UTARA, KALIMANTAN TIMUR, ID, 76125</t>
+  </si>
+  <si>
+    <t>KOTA BALIKPAPAN UTARA</t>
+  </si>
+  <si>
+    <t>2412198K5R8FR5</t>
+  </si>
+  <si>
+    <t>azmiartya</t>
+  </si>
+  <si>
+    <t>Perumahan Puri Sandi Lestari, Jalan Raya Jati Kramat, RT.5/RW.1, Jatikramat, Jatiasih (No. 26 kavling blkg), KOTA BEKASI, JATIASIH, JAWA BARAT, ID, 17421</t>
+  </si>
+  <si>
+    <t>19 Desember 2024</t>
+  </si>
+  <si>
+    <t>PT TEKNOLOGI DIGITAL VETERINER</t>
+  </si>
+  <si>
+    <t>SALESMAN (kode salesman, tanya ke admin)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;Rp&quot;#,##0.00_);[Red]\(&quot;Rp&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,13 +147,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -163,48 +194,52 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,134 +572,717 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D85F1CF-32BB-454E-BEED-22B5500E99CB}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="3.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="129.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6">
+        <v>455</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5">
+        <v>76125</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="M2" s="5">
+        <v>15</v>
+      </c>
+      <c r="N2" s="8">
+        <v>40000</v>
+      </c>
+      <c r="O2" s="8">
+        <v>430340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6">
+        <v>455</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <v>17421</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4">
-        <v>380</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2">
-        <v>17131</v>
-      </c>
-      <c r="K2" s="2">
-        <v>812091019101</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="N3" s="8">
         <v>40000</v>
       </c>
-      <c r="O2" s="4">
-        <v>56460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F3" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="7"/>
+      <c r="O3" s="8">
+        <v>28821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/back/assets/excel/template-import-pos.xlsx
+++ b/public/back/assets/excel/template-import-pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhamadhendrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E8C93F-90D5-E543-9D9B-5CA84C876718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11CB55-321A-BA42-ABDA-5FC72034E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5D562CFB-E2EA-AB4C-9F4D-D2206F588783}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -68,18 +68,12 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>KOTA BEKASI</t>
-  </si>
-  <si>
     <t>OUTLET</t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>SHOPEE</t>
-  </si>
-  <si>
     <t>AC00008</t>
   </si>
   <si>
@@ -89,40 +83,28 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>SATWAGIA OFFICIAL STORE</t>
-  </si>
-  <si>
     <t>18 Desember 2024</t>
   </si>
   <si>
-    <t>412186M03T1CF</t>
-  </si>
-  <si>
-    <t>talitaalya</t>
-  </si>
-  <si>
     <t>Jln.Indrakila .no 19 (Toko Talita Pet Shop 2) Pas Samping Atm Mandiri, KOTA BALIKPAPAN, BALIKPAPAN UTARA, KALIMANTAN TIMUR, ID, 76125</t>
   </si>
   <si>
     <t>KOTA BALIKPAPAN UTARA</t>
   </si>
   <si>
-    <t>2412198K5R8FR5</t>
-  </si>
-  <si>
-    <t>azmiartya</t>
-  </si>
-  <si>
-    <t>Perumahan Puri Sandi Lestari, Jalan Raya Jati Kramat, RT.5/RW.1, Jatikramat, Jatiasih (No. 26 kavling blkg), KOTA BEKASI, JATIASIH, JAWA BARAT, ID, 17421</t>
-  </si>
-  <si>
-    <t>19 Desember 2024</t>
-  </si>
-  <si>
-    <t>PT TEKNOLOGI DIGITAL VETERINER</t>
-  </si>
-  <si>
     <t>SALESMAN (kode salesman, tanya ke admin)</t>
+  </si>
+  <si>
+    <t>SATWAGIA OFFICIAL STORE SANDBOX</t>
+  </si>
+  <si>
+    <t>SHOPEE 412186M03T1CF</t>
+  </si>
+  <si>
+    <t>muhamadhendrik</t>
+  </si>
+  <si>
+    <t>POS-SHOPEE-SGOS-1</t>
   </si>
 </sst>
 </file>
@@ -199,42 +181,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,26 +554,26 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="129.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="120.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -606,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -639,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -650,636 +629,605 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>455</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="6">
-        <v>455</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="5">
         <v>76125</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M2" s="5">
         <v>15</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>40000</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>430340</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6">
-        <v>455</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5">
-        <v>17421</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="8">
-        <v>40000</v>
-      </c>
-      <c r="O3" s="8">
-        <v>28821</v>
-      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="6"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="6"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="6"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="6"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="6"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="F42" s="9"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="6"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/back/assets/excel/template-import-pos.xlsx
+++ b/public/back/assets/excel/template-import-pos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhamadhendrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF11CB55-321A-BA42-ABDA-5FC72034E725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9EFB86-E08C-244C-B7BC-9D6089FEC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5D562CFB-E2EA-AB4C-9F4D-D2206F588783}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19600" xr2:uid="{5D562CFB-E2EA-AB4C-9F4D-D2206F588783}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>AC00008</t>
-  </si>
-  <si>
-    <t>HARGA SATUAN</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -551,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D85F1CF-32BB-454E-BEED-22B5500E99CB}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,12 +569,11 @@
     <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -617,40 +613,37 @@
       <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>455</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="5">
         <v>76125</v>
@@ -663,13 +656,10 @@
         <v>15</v>
       </c>
       <c r="N2" s="7">
-        <v>40000</v>
-      </c>
-      <c r="O2" s="7">
         <v>430340</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="F3" s="5"/>
@@ -681,9 +671,8 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="F4" s="5"/>
@@ -695,9 +684,8 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="F5" s="5"/>
@@ -709,9 +697,8 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="F6" s="5"/>
@@ -723,9 +710,8 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="F7" s="5"/>
@@ -737,9 +723,8 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="F8" s="5"/>
@@ -751,9 +736,8 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="F9" s="5"/>
@@ -765,9 +749,8 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="F10" s="5"/>
@@ -779,9 +762,8 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="F11" s="5"/>
@@ -793,9 +775,8 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="F12" s="5"/>
@@ -807,9 +788,8 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="F13" s="5"/>
@@ -821,9 +801,8 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="F14" s="5"/>
@@ -835,9 +814,8 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="F15" s="5"/>
@@ -849,9 +827,8 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="F16" s="5"/>
@@ -863,9 +840,8 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="F17" s="5"/>
@@ -877,9 +853,8 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="F18" s="5"/>
@@ -891,9 +866,8 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="F19" s="8"/>
@@ -905,9 +879,8 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="F20" s="5"/>
@@ -919,9 +892,8 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="F21" s="5"/>
@@ -932,10 +904,9 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="F22" s="5"/>
@@ -947,9 +918,8 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="F23" s="8"/>
@@ -961,9 +931,8 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="F24" s="5"/>
@@ -975,9 +944,8 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="F25" s="5"/>
@@ -989,9 +957,8 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="F26" s="5"/>
@@ -1003,9 +970,8 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="F27" s="5"/>
@@ -1017,9 +983,8 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="F28" s="5"/>
@@ -1031,9 +996,8 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="F29" s="5"/>
@@ -1045,9 +1009,8 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="F30" s="8"/>
@@ -1059,9 +1022,8 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="F31" s="5"/>
@@ -1073,9 +1035,8 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="F32" s="5"/>
@@ -1087,9 +1048,8 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="F33" s="5"/>
@@ -1101,9 +1061,8 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="F34" s="5"/>
@@ -1115,9 +1074,8 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="F35" s="5"/>
@@ -1129,9 +1087,8 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="F36" s="5"/>
@@ -1143,9 +1100,8 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="F37" s="5"/>
@@ -1157,9 +1113,8 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="F38" s="5"/>
@@ -1171,9 +1126,8 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="F39" s="5"/>
@@ -1185,9 +1139,8 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="F40" s="5"/>
@@ -1199,9 +1152,8 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="F41" s="5"/>
@@ -1213,9 +1165,8 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="F42" s="8"/>
@@ -1227,7 +1178,6 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
